--- a/文档/产品设计/数据表设计/数据表设计.xlsx
+++ b/文档/产品设计/数据表设计/数据表设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartDiary\文档\产品设计\数据表设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47AD965-9D7A-4956-8F80-C5D438C179D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4078591-8D62-4C96-80F2-48AA088DB28C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2FE14E0-8A0A-4444-8726-01DDE752B0A4}"/>
   </bookViews>
@@ -25,12 +25,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡得很早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天进行很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熬夜情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录项id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录项名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机使用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步圈数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DayEntry</t>
+  </si>
+  <si>
+    <t>RecordEntry</t>
+  </si>
+  <si>
+    <t>RecordTemplate</t>
+  </si>
+  <si>
+    <t>CellEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +162,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,12 +192,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,19 +516,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C197A18-2B92-4210-A031-079F6C1A5AE5}">
-  <dimension ref="D2"/>
+  <dimension ref="B1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L32" sqref="L31:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="1"/>
+      <c r="E2">
+        <v>3.7</v>
+      </c>
+      <c r="I2">
+        <v>3.7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3.8</v>
+      </c>
+      <c r="I3">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3.9</v>
+      </c>
+      <c r="I4">
+        <v>3.9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4.2</v>
+      </c>
+      <c r="I7">
+        <v>4.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4.3</v>
+      </c>
+      <c r="I8">
+        <v>4.3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+      <c r="I10">
+        <v>4.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" ht="19.2" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>